--- a/TestData/TestDataofforum.xlsx
+++ b/TestData/TestDataofforum.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A064C4-BABA-4AA1-AF35-B073953030BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720B28DC-364D-4352-914D-4FCF9D72D29B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>Password</t>
   </si>
@@ -46,12 +47,6 @@
     <t xml:space="preserve">https://docs.google.com/forms </t>
   </si>
   <si>
-    <t>indrasend22@gmail.com</t>
-  </si>
-  <si>
-    <t>Indra2207</t>
-  </si>
-  <si>
     <t>Softvision Assessment</t>
   </si>
   <si>
@@ -74,6 +69,24 @@
   </si>
   <si>
     <t>ForumURL</t>
+  </si>
+  <si>
+    <t>mrafishaik9848@gmail.com</t>
+  </si>
+  <si>
+    <t>9848325993</t>
+  </si>
+  <si>
+    <t>BDD Is Popular and can be utilized for test</t>
+  </si>
+  <si>
+    <t>Question2</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Testing2</t>
   </si>
 </sst>
 </file>
@@ -426,89 +439,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE42950-18F0-4540-86C0-F80F11CFDCAB}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{B2D45138-87EC-44CD-9EDB-377E8A8BB70C}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{0EE7DF5B-1F2D-40DC-87C8-F8F11341C951}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{0EE7DF5B-1F2D-40DC-87C8-F8F11341C951}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{B1553B13-380E-41BF-A619-5EDE949E89ED}"/>
+    <hyperlink ref="B2" r:id="rId3" display="https://docs.google.com/forms " xr:uid="{9711C475-07CE-4A7F-973B-E199D5616CD2}"/>
+    <hyperlink ref="B3" r:id="rId4" display="https://docs.google.com/forms " xr:uid="{924E73E4-00F0-4295-A1E2-99F8929F0829}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{F19A91E0-FEA7-4B48-978D-B28C7458A104}"/>
+    <hyperlink ref="B4" r:id="rId6" display="https://docs.google.com/forms " xr:uid="{DB8B3746-D839-4CB2-92CB-2262541ED3A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
 </worksheet>
 </file>